--- a/backend/docs/14-25.xlsx
+++ b/backend/docs/14-25.xlsx
@@ -101,7 +101,7 @@
       <patternFill patternType="gray125"/>
     </fill>
   </fills>
-  <borders count="3">
+  <borders count="4">
     <border>
       <left/>
       <right/>
@@ -133,11 +133,22 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="12">
+  <cellXfs count="17">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -149,27 +160,32 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="right"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Обычный" xfId="0" builtinId="0"/>
@@ -477,7 +493,7 @@
   <dimension ref="A1:I19"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="P9" sqref="P9"/>
+      <selection activeCell="J11" sqref="J11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18.75" x14ac:dyDescent="0.3"/>
@@ -488,71 +504,71 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="G1" s="10" t="s">
+      <c r="G1" s="5" t="s">
         <v>0</v>
       </c>
-      <c r="H1" s="10"/>
-      <c r="I1" s="10"/>
+      <c r="H1" s="5"/>
+      <c r="I1" s="5"/>
     </row>
     <row r="2" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="G2" s="10" t="s">
+      <c r="G2" s="5" t="s">
         <v>1</v>
       </c>
-      <c r="H2" s="10"/>
-      <c r="I2" s="10"/>
+      <c r="H2" s="5"/>
+      <c r="I2" s="5"/>
     </row>
     <row r="3" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="G3" s="10" t="s">
+      <c r="G3" s="5" t="s">
         <v>2</v>
       </c>
-      <c r="H3" s="10"/>
-      <c r="I3" s="10"/>
+      <c r="H3" s="5"/>
+      <c r="I3" s="5"/>
     </row>
     <row r="4" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="G4" s="10" t="s">
+      <c r="G4" s="5" t="s">
         <v>3</v>
       </c>
-      <c r="H4" s="10"/>
-      <c r="I4" s="10"/>
+      <c r="H4" s="5"/>
+      <c r="I4" s="5"/>
     </row>
     <row r="7" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A7" s="7" t="s">
+      <c r="A7" s="6" t="s">
         <v>4</v>
       </c>
-      <c r="B7" s="7"/>
-      <c r="C7" s="7"/>
-      <c r="D7" s="7"/>
-      <c r="E7" s="7"/>
-      <c r="F7" s="7"/>
-      <c r="G7" s="7"/>
-      <c r="H7" s="7"/>
-      <c r="I7" s="7"/>
+      <c r="B7" s="6"/>
+      <c r="C7" s="6"/>
+      <c r="D7" s="6"/>
+      <c r="E7" s="6"/>
+      <c r="F7" s="6"/>
+      <c r="G7" s="6"/>
+      <c r="H7" s="6"/>
+      <c r="I7" s="6"/>
     </row>
     <row r="8" spans="1:9" ht="32.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A8" s="11" t="s">
+      <c r="A8" s="7" t="s">
         <v>5</v>
       </c>
-      <c r="B8" s="11"/>
-      <c r="C8" s="11"/>
-      <c r="D8" s="11"/>
-      <c r="E8" s="11"/>
-      <c r="F8" s="11"/>
-      <c r="G8" s="11"/>
-      <c r="H8" s="11"/>
-      <c r="I8" s="11"/>
+      <c r="B8" s="7"/>
+      <c r="C8" s="7"/>
+      <c r="D8" s="7"/>
+      <c r="E8" s="7"/>
+      <c r="F8" s="7"/>
+      <c r="G8" s="7"/>
+      <c r="H8" s="7"/>
+      <c r="I8" s="7"/>
     </row>
     <row r="9" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A9" s="7" t="s">
+      <c r="A9" s="6" t="s">
         <v>6</v>
       </c>
-      <c r="B9" s="7"/>
-      <c r="C9" s="7"/>
-      <c r="D9" s="7"/>
-      <c r="E9" s="7"/>
-      <c r="F9" s="7"/>
-      <c r="G9" s="7"/>
-      <c r="H9" s="7"/>
-      <c r="I9" s="7"/>
+      <c r="B9" s="6"/>
+      <c r="C9" s="6"/>
+      <c r="D9" s="6"/>
+      <c r="E9" s="6"/>
+      <c r="F9" s="6"/>
+      <c r="G9" s="6"/>
+      <c r="H9" s="6"/>
+      <c r="I9" s="6"/>
     </row>
     <row r="11" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A11" s="8" t="s">
@@ -576,40 +592,52 @@
       <c r="E12" s="8"/>
     </row>
     <row r="13" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A13" s="4" t="s">
+      <c r="A13" s="12" t="s">
         <v>9</v>
       </c>
-      <c r="B13" s="4"/>
-      <c r="C13" s="4"/>
-      <c r="D13" s="4"/>
-      <c r="E13" s="4"/>
+      <c r="B13" s="13"/>
+      <c r="C13" s="13"/>
+      <c r="D13" s="13"/>
+      <c r="E13" s="13"/>
+      <c r="F13" s="14"/>
+      <c r="G13" s="14"/>
+      <c r="H13" s="14"/>
     </row>
     <row r="14" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A14" s="4" t="s">
+      <c r="A14" s="12" t="s">
         <v>10</v>
       </c>
-      <c r="B14" s="4"/>
-      <c r="C14" s="4"/>
-      <c r="D14" s="4"/>
-      <c r="E14" s="4"/>
+      <c r="B14" s="15"/>
+      <c r="C14" s="15"/>
+      <c r="D14" s="15"/>
+      <c r="E14" s="15"/>
+      <c r="F14" s="16"/>
+      <c r="G14" s="16"/>
+      <c r="H14" s="16"/>
     </row>
     <row r="15" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A15" s="4" t="s">
+      <c r="A15" s="12" t="s">
         <v>11</v>
       </c>
-      <c r="B15" s="4"/>
-      <c r="C15" s="4"/>
-      <c r="D15" s="4"/>
-      <c r="E15" s="4"/>
+      <c r="B15" s="15"/>
+      <c r="C15" s="15"/>
+      <c r="D15" s="15"/>
+      <c r="E15" s="15"/>
+      <c r="F15" s="16"/>
+      <c r="G15" s="16"/>
+      <c r="H15" s="16"/>
     </row>
     <row r="16" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A16" s="4" t="s">
+      <c r="A16" s="12" t="s">
         <v>12</v>
       </c>
-      <c r="B16" s="4"/>
-      <c r="C16" s="4"/>
-      <c r="D16" s="4"/>
-      <c r="E16" s="4"/>
+      <c r="B16" s="15"/>
+      <c r="C16" s="15"/>
+      <c r="D16" s="15"/>
+      <c r="E16" s="15"/>
+      <c r="F16" s="16"/>
+      <c r="G16" s="16"/>
+      <c r="H16" s="16"/>
     </row>
     <row r="18" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A18" s="4" t="s">
@@ -628,26 +656,29 @@
       <c r="A19" s="2" t="s">
         <v>14</v>
       </c>
-      <c r="B19" s="5" t="s">
+      <c r="B19" s="10" t="s">
         <v>15</v>
       </c>
-      <c r="C19" s="5"/>
-      <c r="D19" s="5"/>
-      <c r="E19" s="6" t="s">
+      <c r="C19" s="10"/>
+      <c r="D19" s="10"/>
+      <c r="E19" s="11" t="s">
         <v>16</v>
       </c>
-      <c r="F19" s="6"/>
-      <c r="G19" s="6" t="s">
+      <c r="F19" s="11"/>
+      <c r="G19" s="11" t="s">
         <v>17</v>
       </c>
-      <c r="H19" s="6"/>
+      <c r="H19" s="11"/>
       <c r="I19" s="3" t="s">
         <v>18</v>
       </c>
     </row>
   </sheetData>
-  <mergeCells count="18">
-    <mergeCell ref="A14:E14"/>
+  <mergeCells count="14">
+    <mergeCell ref="A18:I18"/>
+    <mergeCell ref="B19:D19"/>
+    <mergeCell ref="E19:F19"/>
+    <mergeCell ref="G19:H19"/>
     <mergeCell ref="G1:I1"/>
     <mergeCell ref="G2:I2"/>
     <mergeCell ref="G3:I3"/>
@@ -658,13 +689,6 @@
     <mergeCell ref="A11:E11"/>
     <mergeCell ref="F11:H11"/>
     <mergeCell ref="A12:E12"/>
-    <mergeCell ref="A13:E13"/>
-    <mergeCell ref="A15:E15"/>
-    <mergeCell ref="A16:E16"/>
-    <mergeCell ref="A18:I18"/>
-    <mergeCell ref="B19:D19"/>
-    <mergeCell ref="E19:F19"/>
-    <mergeCell ref="G19:H19"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" verticalDpi="0" r:id="rId1"/>
